--- a/Datasets/Frommann/Data/Frommann_1_A_Ospanova.xlsx
+++ b/Datasets/Frommann/Data/Frommann_1_A_Ospanova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianaospanova/Desktop/Arbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Frommann/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6776055C-0F88-2047-8D24-F37D1EB9A721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6776055C-0F88-2047-8D24-F37D1EB9A721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62A135BD-9CA6-4D4D-9D52-34C79060AA86}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,9 +345,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,31 +623,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.875" customWidth="1"/>
     <col min="4" max="4" width="68" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
     <col min="6" max="6" width="29.5" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -737,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -773,7 +774,7 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -786,7 +787,7 @@
       <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -808,14 +809,14 @@
         <v>28</v>
       </c>
       <c r="M4" s="10"/>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="15" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -825,7 +826,7 @@
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -847,14 +848,14 @@
         <v>28</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="15" t="s">
         <v>31</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -893,7 +894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -932,7 +933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -971,7 +972,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1476,30 +1477,30 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I47" s="4"/>
     </row>
-    <row r="75" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P75" s="5"/>
     </row>
-    <row r="76" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P76" s="5"/>
     </row>
-    <row r="77" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P77" s="5"/>
     </row>
-    <row r="78" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P78" s="5"/>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="271" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P271" s="1"/>
     </row>
   </sheetData>
@@ -1512,13 +1513,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1535,18 +1536,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
